--- a/data/shm_final.xlsx
+++ b/data/shm_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>param1</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ebc_avg</t>
+  </si>
+  <si>
+    <t>ebc_sd</t>
+  </si>
+  <si>
+    <t>ebc_max</t>
+  </si>
+  <si>
+    <t>ebc_min</t>
+  </si>
+  <si>
+    <t>hub_repulsion_mod</t>
   </si>
   <si>
     <t>1.0_1.0_0.0</t>
@@ -839,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,8 +921,23 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -969,10 +999,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W2">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1034,10 +1079,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="V3">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W3">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1099,10 +1159,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W4">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1164,10 +1239,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>28</v>
+      </c>
+      <c r="V5">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W5">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1229,10 +1319,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V6">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W6">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y6">
+        <v>0.5</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1294,10 +1399,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W7">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="X7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1359,10 +1479,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="U8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>31</v>
+      </c>
+      <c r="V8">
+        <v>0.111523397237683</v>
+      </c>
+      <c r="W8">
+        <v>0.09446661914978026</v>
+      </c>
+      <c r="X8">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y8">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1424,10 +1559,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>32</v>
+      </c>
+      <c r="V9">
+        <v>0.111523397237683</v>
+      </c>
+      <c r="W9">
+        <v>0.09446661914978026</v>
+      </c>
+      <c r="X9">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y9">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z9">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1489,10 +1639,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="U10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>33</v>
+      </c>
+      <c r="V10">
+        <v>0.111523397237683</v>
+      </c>
+      <c r="W10">
+        <v>0.09446661914978026</v>
+      </c>
+      <c r="X10">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y10">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z10">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1554,10 +1719,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="U11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>34</v>
+      </c>
+      <c r="V11">
+        <v>0.111523397237683</v>
+      </c>
+      <c r="W11">
+        <v>0.09446661914978026</v>
+      </c>
+      <c r="X11">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y11">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z11">
+        <v>0.2333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1619,10 +1799,25 @@
         <v>0.5209235209235209</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V12">
+        <v>0.1523397237682952</v>
+      </c>
+      <c r="W12">
+        <v>0.1541916904145232</v>
+      </c>
+      <c r="X12">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y12">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1684,10 +1879,25 @@
         <v>0.5209235209235209</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>36</v>
+      </c>
+      <c r="V13">
+        <v>0.1523397237682952</v>
+      </c>
+      <c r="W13">
+        <v>0.1541916904145232</v>
+      </c>
+      <c r="X13">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="Y13">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1749,10 +1959,25 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>37</v>
+      </c>
+      <c r="V14">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="W14">
+        <v>0.1192569587999888</v>
+      </c>
+      <c r="X14">
+        <v>0.6</v>
+      </c>
+      <c r="Y14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1814,10 +2039,25 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>38</v>
+      </c>
+      <c r="V15">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="W15">
+        <v>0.1247219128924647</v>
+      </c>
+      <c r="X15">
+        <v>0.6</v>
+      </c>
+      <c r="Y15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1879,10 +2119,25 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>39</v>
+      </c>
+      <c r="V16">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="W16">
+        <v>0.1192569587999888</v>
+      </c>
+      <c r="X16">
+        <v>0.6</v>
+      </c>
+      <c r="Y16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1944,10 +2199,25 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>40</v>
+      </c>
+      <c r="V17">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="W17">
+        <v>0.1192569587999888</v>
+      </c>
+      <c r="X17">
+        <v>0.6</v>
+      </c>
+      <c r="Y17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2009,10 +2279,25 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>41</v>
+      </c>
+      <c r="V18">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="W18">
+        <v>0.1192569587999888</v>
+      </c>
+      <c r="X18">
+        <v>0.6</v>
+      </c>
+      <c r="Y18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2074,10 +2359,25 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>42</v>
+      </c>
+      <c r="V19">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="W19">
+        <v>0.1247219128924647</v>
+      </c>
+      <c r="X19">
+        <v>0.6</v>
+      </c>
+      <c r="Y19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2139,10 +2439,25 @@
         <v>0.1637630662020906</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>43</v>
+      </c>
+      <c r="V20">
+        <v>0.05895017138324693</v>
+      </c>
+      <c r="W20">
+        <v>0.07255459321189597</v>
+      </c>
+      <c r="X20">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y20">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2204,10 +2519,25 @@
         <v>0.1637630662020906</v>
       </c>
       <c r="U21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <v>0.05895017138324693</v>
+      </c>
+      <c r="W21">
+        <v>0.07255459321189597</v>
+      </c>
+      <c r="X21">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y21">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z21">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2269,10 +2599,25 @@
         <v>0.1637630662020906</v>
       </c>
       <c r="U22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>45</v>
+      </c>
+      <c r="V22">
+        <v>0.05895017138324693</v>
+      </c>
+      <c r="W22">
+        <v>0.07255459321189597</v>
+      </c>
+      <c r="X22">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y22">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2334,10 +2679,25 @@
         <v>0.3954703832752614</v>
       </c>
       <c r="U23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>46</v>
+      </c>
+      <c r="V23">
+        <v>0.08155576329282456</v>
+      </c>
+      <c r="W23">
+        <v>0.1222821989931724</v>
+      </c>
+      <c r="X23">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y23">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z23">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2399,10 +2759,25 @@
         <v>0.3954703832752614</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>47</v>
+      </c>
+      <c r="V24">
+        <v>0.08155576329282456</v>
+      </c>
+      <c r="W24">
+        <v>0.1222821989931724</v>
+      </c>
+      <c r="X24">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y24">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z24">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2464,10 +2839,25 @@
         <v>0.3954703832752614</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>48</v>
+      </c>
+      <c r="V25">
+        <v>0.08155576329282456</v>
+      </c>
+      <c r="W25">
+        <v>0.1222821989931724</v>
+      </c>
+      <c r="X25">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="Y25">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2529,10 +2919,25 @@
         <v>0.4107142857142857</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>49</v>
+      </c>
+      <c r="V26">
+        <v>0.2959183673469388</v>
+      </c>
+      <c r="W26">
+        <v>0.1214885806101087</v>
+      </c>
+      <c r="X26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y26">
+        <v>0.25</v>
+      </c>
+      <c r="Z26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2594,10 +2999,25 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="U27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>50</v>
+      </c>
+      <c r="V27">
+        <v>0.3775510204081632</v>
+      </c>
+      <c r="W27">
+        <v>0.1595288861005614</v>
+      </c>
+      <c r="X27">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y27">
+        <v>0.25</v>
+      </c>
+      <c r="Z27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2659,10 +3079,25 @@
         <v>0.4107142857142857</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>51</v>
+      </c>
+      <c r="V28">
+        <v>0.2959183673469388</v>
+      </c>
+      <c r="W28">
+        <v>0.1214885806101087</v>
+      </c>
+      <c r="X28">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y28">
+        <v>0.25</v>
+      </c>
+      <c r="Z28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2724,10 +3159,25 @@
         <v>0.4107142857142857</v>
       </c>
       <c r="U29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>52</v>
+      </c>
+      <c r="V29">
+        <v>0.2959183673469388</v>
+      </c>
+      <c r="W29">
+        <v>0.1214885806101087</v>
+      </c>
+      <c r="X29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y29">
+        <v>0.25</v>
+      </c>
+      <c r="Z29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2789,10 +3239,25 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>53</v>
+      </c>
+      <c r="V30">
+        <v>0.3775510204081632</v>
+      </c>
+      <c r="W30">
+        <v>0.1595288861005614</v>
+      </c>
+      <c r="X30">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y30">
+        <v>0.25</v>
+      </c>
+      <c r="Z30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2854,10 +3319,25 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>54</v>
+      </c>
+      <c r="V31">
+        <v>0.3775510204081632</v>
+      </c>
+      <c r="W31">
+        <v>0.1595288861005614</v>
+      </c>
+      <c r="X31">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y31">
+        <v>0.25</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2919,10 +3399,25 @@
         <v>0.3560606060606061</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>55</v>
+      </c>
+      <c r="V32">
+        <v>0.2011019283746557</v>
+      </c>
+      <c r="W32">
+        <v>0.1142088426430923</v>
+      </c>
+      <c r="X32">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y32">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2984,10 +3479,25 @@
         <v>0.3560606060606061</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>56</v>
+      </c>
+      <c r="V33">
+        <v>0.2011019283746557</v>
+      </c>
+      <c r="W33">
+        <v>0.1142088426430923</v>
+      </c>
+      <c r="X33">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y33">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z33">
+        <v>0.4333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3049,10 +3559,25 @@
         <v>0.3560606060606061</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>57</v>
+      </c>
+      <c r="V34">
+        <v>0.2011019283746557</v>
+      </c>
+      <c r="W34">
+        <v>0.1142088426430923</v>
+      </c>
+      <c r="X34">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y34">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z34">
+        <v>0.2333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3114,10 +3639,25 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V35">
+        <v>0.2672176308539945</v>
+      </c>
+      <c r="W35">
+        <v>0.1722578319394976</v>
+      </c>
+      <c r="X35">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y35">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z35">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3179,10 +3719,25 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>59</v>
+      </c>
+      <c r="V36">
+        <v>0.2672176308539945</v>
+      </c>
+      <c r="W36">
+        <v>0.1722578319394976</v>
+      </c>
+      <c r="X36">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y36">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z36">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3244,10 +3799,25 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>60</v>
+      </c>
+      <c r="V37">
+        <v>0.2672176308539945</v>
+      </c>
+      <c r="W37">
+        <v>0.1722578319394976</v>
+      </c>
+      <c r="X37">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y37">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3309,10 +3879,25 @@
         <v>0.08894250769614777</v>
       </c>
       <c r="U38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>61</v>
+      </c>
+      <c r="V38">
+        <v>0.0244132159284653</v>
+      </c>
+      <c r="W38">
+        <v>0.04829339886478301</v>
+      </c>
+      <c r="X38">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y38">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3374,10 +3959,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>62</v>
+      </c>
+      <c r="V39">
+        <v>0.03402011721265313</v>
+      </c>
+      <c r="W39">
+        <v>0.08278384955073997</v>
+      </c>
+      <c r="X39">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y39">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3439,10 +4039,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>63</v>
+      </c>
+      <c r="V40">
+        <v>0.03402011721265313</v>
+      </c>
+      <c r="W40">
+        <v>0.08278384955073997</v>
+      </c>
+      <c r="X40">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y40">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3504,10 +4119,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="V41">
+        <v>0.03402011721265313</v>
+      </c>
+      <c r="W41">
+        <v>0.08278384955073997</v>
+      </c>
+      <c r="X41">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y41">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3569,10 +4199,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>65</v>
+      </c>
+      <c r="V42">
+        <v>0.03402011721265313</v>
+      </c>
+      <c r="W42">
+        <v>0.08278384955073997</v>
+      </c>
+      <c r="X42">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y42">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z42">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3634,10 +4279,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>66</v>
+      </c>
+      <c r="V43">
+        <v>0.03402011721265313</v>
+      </c>
+      <c r="W43">
+        <v>0.08278384955073997</v>
+      </c>
+      <c r="X43">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="Y43">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3699,10 +4359,25 @@
         <v>0.4555555555555556</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>67</v>
+      </c>
+      <c r="V44">
+        <v>0.2740740740740741</v>
+      </c>
+      <c r="W44">
+        <v>0.125215862995385</v>
+      </c>
+      <c r="X44">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y44">
+        <v>0.2</v>
+      </c>
+      <c r="Z44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3761,10 +4436,25 @@
         <v>0.4555555555555556</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>68</v>
+      </c>
+      <c r="V45">
+        <v>0.2740740740740741</v>
+      </c>
+      <c r="W45">
+        <v>0.125215862995385</v>
+      </c>
+      <c r="X45">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y45">
+        <v>0.2</v>
+      </c>
+      <c r="Z45">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3823,10 +4513,25 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>69</v>
+      </c>
+      <c r="V46">
+        <v>0.3037037037037037</v>
+      </c>
+      <c r="W46">
+        <v>0.1365356191938279</v>
+      </c>
+      <c r="X46">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y46">
+        <v>0.2</v>
+      </c>
+      <c r="Z46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3885,10 +4590,25 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>70</v>
+      </c>
+      <c r="V47">
+        <v>0.3037037037037037</v>
+      </c>
+      <c r="W47">
+        <v>0.1365356191938279</v>
+      </c>
+      <c r="X47">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y47">
+        <v>0.2</v>
+      </c>
+      <c r="Z47">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3947,10 +4667,25 @@
         <v>0.5444444444444445</v>
       </c>
       <c r="U48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>71</v>
+      </c>
+      <c r="V48">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="W48">
+        <v>0.1378852627332317</v>
+      </c>
+      <c r="X48">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y48">
+        <v>0.2</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4012,10 +4747,25 @@
         <v>0.5444444444444445</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>72</v>
+      </c>
+      <c r="V49">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="W49">
+        <v>0.1378852627332317</v>
+      </c>
+      <c r="X49">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y49">
+        <v>0.2</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4077,10 +4827,25 @@
         <v>0.06198376786612081</v>
       </c>
       <c r="U50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>73</v>
+      </c>
+      <c r="V50">
+        <v>0.007651900809163715</v>
+      </c>
+      <c r="W50">
+        <v>0.02528204845910905</v>
+      </c>
+      <c r="X50">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y50">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z50">
+        <v>0.9545454545454546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4142,10 +4907,25 @@
         <v>0.1061009874035084</v>
       </c>
       <c r="U51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>74</v>
+      </c>
+      <c r="V51">
+        <v>0.01090427449542524</v>
+      </c>
+      <c r="W51">
+        <v>0.04211639914518618</v>
+      </c>
+      <c r="X51">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y51">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z51">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4207,10 +4987,25 @@
         <v>0.06946924068772808</v>
       </c>
       <c r="U52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>75</v>
+      </c>
+      <c r="V52">
+        <v>0.009852397264504965</v>
+      </c>
+      <c r="W52">
+        <v>0.02680948501014285</v>
+      </c>
+      <c r="X52">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y52">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z52">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4272,10 +5067,25 @@
         <v>0.06946924068772808</v>
       </c>
       <c r="U53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>76</v>
+      </c>
+      <c r="V53">
+        <v>0.009852397264504965</v>
+      </c>
+      <c r="W53">
+        <v>0.02680948501014285</v>
+      </c>
+      <c r="X53">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y53">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z53">
+        <v>0.4181818181818182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4337,10 +5147,25 @@
         <v>0.1821750067548387</v>
       </c>
       <c r="U54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>77</v>
+      </c>
+      <c r="V54">
+        <v>0.01714741364887138</v>
+      </c>
+      <c r="W54">
+        <v>0.06258019439063299</v>
+      </c>
+      <c r="X54">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y54">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z54">
+        <v>0.1696969696969697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4402,10 +5227,25 @@
         <v>0.2198815423605339</v>
       </c>
       <c r="U55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>78</v>
+      </c>
+      <c r="V55">
+        <v>0.0199996970705254</v>
+      </c>
+      <c r="W55">
+        <v>0.07059531049895748</v>
+      </c>
+      <c r="X55">
+        <v>0.5011337868480725</v>
+      </c>
+      <c r="Y55">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4467,10 +5307,25 @@
         <v>0.3148717948717949</v>
       </c>
       <c r="U56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>79</v>
+      </c>
+      <c r="V56">
+        <v>0.1163076923076923</v>
+      </c>
+      <c r="W56">
+        <v>0.09807616892621063</v>
+      </c>
+      <c r="X56">
+        <v>0.52</v>
+      </c>
+      <c r="Y56">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4532,10 +5387,25 @@
         <v>0.3343589743589744</v>
       </c>
       <c r="U57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>80</v>
+      </c>
+      <c r="V57">
+        <v>0.1268923076923077</v>
+      </c>
+      <c r="W57">
+        <v>0.1020201472928211</v>
+      </c>
+      <c r="X57">
+        <v>0.52</v>
+      </c>
+      <c r="Y57">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z57">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4597,10 +5467,25 @@
         <v>0.477948717948718</v>
       </c>
       <c r="U58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>81</v>
+      </c>
+      <c r="V58">
+        <v>0.1638153846153846</v>
+      </c>
+      <c r="W58">
+        <v>0.155174470744413</v>
+      </c>
+      <c r="X58">
+        <v>0.52</v>
+      </c>
+      <c r="Y58">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z58">
+        <v>0.2833333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4662,10 +5547,25 @@
         <v>0.517948717948718</v>
       </c>
       <c r="U59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>82</v>
+      </c>
+      <c r="V59">
+        <v>0.2201846153846154</v>
+      </c>
+      <c r="W59">
+        <v>0.1739166637132847</v>
+      </c>
+      <c r="X59">
+        <v>0.52</v>
+      </c>
+      <c r="Y59">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4727,10 +5627,25 @@
         <v>0.517948717948718</v>
       </c>
       <c r="U60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>83</v>
+      </c>
+      <c r="V60">
+        <v>0.2492307692307692</v>
+      </c>
+      <c r="W60">
+        <v>0.1782226517855333</v>
+      </c>
+      <c r="X60">
+        <v>0.52</v>
+      </c>
+      <c r="Y60">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z60">
+        <v>0.1833333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4792,10 +5707,25 @@
         <v>0.517948717948718</v>
       </c>
       <c r="U61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>84</v>
+      </c>
+      <c r="V61">
+        <v>0.2492307692307692</v>
+      </c>
+      <c r="W61">
+        <v>0.1782226517855333</v>
+      </c>
+      <c r="X61">
+        <v>0.52</v>
+      </c>
+      <c r="Y61">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4857,10 +5787,25 @@
         <v>0.0179154950855982</v>
       </c>
       <c r="U62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>85</v>
+      </c>
+      <c r="V62">
+        <v>0.002044785426234013</v>
+      </c>
+      <c r="W62">
+        <v>0.0126758676609976</v>
+      </c>
+      <c r="X62">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y62">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z62">
+        <v>0.9761904761904762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4922,10 +5867,25 @@
         <v>0.0333455321592927</v>
       </c>
       <c r="U63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>86</v>
+      </c>
+      <c r="V63">
+        <v>0.00283418649008751</v>
+      </c>
+      <c r="W63">
+        <v>0.02144450464670537</v>
+      </c>
+      <c r="X63">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y63">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z63">
+        <v>0.7396825396825397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4987,10 +5947,25 @@
         <v>0.02610738479483214</v>
       </c>
       <c r="U64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>87</v>
+      </c>
+      <c r="V64">
+        <v>0.002463882698687385</v>
+      </c>
+      <c r="W64">
+        <v>0.01302520281754175</v>
+      </c>
+      <c r="X64">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y64">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z64">
+        <v>0.5968253968253968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5052,10 +6027,25 @@
         <v>0.07451286850569822</v>
       </c>
       <c r="U65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>88</v>
+      </c>
+      <c r="V65">
+        <v>0.005086386290104678</v>
+      </c>
+      <c r="W65">
+        <v>0.03666068871269829</v>
+      </c>
+      <c r="X65">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y65">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z65">
+        <v>0.3682539682539683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5117,10 +6107,25 @@
         <v>0.07472869346625957</v>
       </c>
       <c r="U66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>89</v>
+      </c>
+      <c r="V66">
+        <v>0.005309904835413143</v>
+      </c>
+      <c r="W66">
+        <v>0.03670800649205302</v>
+      </c>
+      <c r="X66">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y66">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z66">
+        <v>0.2095238095238095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5182,10 +6187,25 @@
         <v>0.07486358406661042</v>
       </c>
       <c r="U67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>90</v>
+      </c>
+      <c r="V67">
+        <v>0.005449603926230934</v>
+      </c>
+      <c r="W67">
+        <v>0.03673685814786042</v>
+      </c>
+      <c r="X67">
+        <v>0.5002974419988102</v>
+      </c>
+      <c r="Y67">
+        <v>0.001189060642092747</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5247,10 +6267,25 @@
         <v>0.2402040816326531</v>
       </c>
       <c r="U68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>91</v>
+      </c>
+      <c r="V68">
+        <v>0.06309037900874635</v>
+      </c>
+      <c r="W68">
+        <v>0.07469889578325094</v>
+      </c>
+      <c r="X68">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y68">
+        <v>0.04</v>
+      </c>
+      <c r="Z68">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5312,10 +6347,25 @@
         <v>0.5024489795918368</v>
       </c>
       <c r="U69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>92</v>
+      </c>
+      <c r="V69">
+        <v>0.1173011245314452</v>
+      </c>
+      <c r="W69">
+        <v>0.1569876611566178</v>
+      </c>
+      <c r="X69">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y69">
+        <v>0.04</v>
+      </c>
+      <c r="Z69">
+        <v>0.8130952380952381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5377,10 +6427,25 @@
         <v>0.4085714285714286</v>
       </c>
       <c r="U70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>93</v>
+      </c>
+      <c r="V70">
+        <v>0.08061640982923782</v>
+      </c>
+      <c r="W70">
+        <v>0.1104225009378805</v>
+      </c>
+      <c r="X70">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y70">
+        <v>0.04</v>
+      </c>
+      <c r="Z70">
+        <v>0.6861904761904761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5442,10 +6507,25 @@
         <v>0.5024489795918368</v>
       </c>
       <c r="U71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>94</v>
+      </c>
+      <c r="V71">
+        <v>0.1173011245314452</v>
+      </c>
+      <c r="W71">
+        <v>0.1569876611566178</v>
+      </c>
+      <c r="X71">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y71">
+        <v>0.04</v>
+      </c>
+      <c r="Z71">
+        <v>0.4980952380952381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5507,10 +6587,25 @@
         <v>0.5024489795918368</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>95</v>
+      </c>
+      <c r="V72">
+        <v>0.1437567680133278</v>
+      </c>
+      <c r="W72">
+        <v>0.1689322820573004</v>
+      </c>
+      <c r="X72">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y72">
+        <v>0.04</v>
+      </c>
+      <c r="Z72">
+        <v>0.2422222222222222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5572,10 +6667,25 @@
         <v>0.5024489795918368</v>
       </c>
       <c r="U73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>96</v>
+      </c>
+      <c r="V73">
+        <v>0.1482215743440233</v>
+      </c>
+      <c r="W73">
+        <v>0.1676887168580172</v>
+      </c>
+      <c r="X73">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="Y73">
+        <v>0.04</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5637,10 +6747,25 @@
         <v>0.1455256740279095</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>97</v>
+      </c>
+      <c r="V74">
+        <v>0.02686258329125149</v>
+      </c>
+      <c r="W74">
+        <v>0.04876094041758559</v>
+      </c>
+      <c r="X74">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y74">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z74">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5702,10 +6827,25 @@
         <v>0.1510635415255386</v>
       </c>
       <c r="U75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="V75">
+        <v>0.03071881007859134</v>
+      </c>
+      <c r="W75">
+        <v>0.05093831203653114</v>
+      </c>
+      <c r="X75">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y75">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z75">
+        <v>0.7277777777777777</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5767,10 +6907,25 @@
         <v>0.1566014090231676</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>99</v>
+      </c>
+      <c r="V76">
+        <v>0.03457503686593118</v>
+      </c>
+      <c r="W76">
+        <v>0.05274282078507598</v>
+      </c>
+      <c r="X76">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y76">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z76">
+        <v>0.5166666666666667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5832,10 +6987,25 @@
         <v>0.4423858555751254</v>
       </c>
       <c r="U77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>100</v>
+      </c>
+      <c r="V77">
+        <v>0.0540845884172115</v>
+      </c>
+      <c r="W77">
+        <v>0.1116999927071476</v>
+      </c>
+      <c r="X77">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y77">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z77">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5897,10 +7067,25 @@
         <v>0.4941742311339927</v>
       </c>
       <c r="U78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>101</v>
+      </c>
+      <c r="V78">
+        <v>0.06342955611963261</v>
+      </c>
+      <c r="W78">
+        <v>0.1254815946753916</v>
+      </c>
+      <c r="X78">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y78">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z78">
+        <v>0.2111111111111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5962,10 +7147,25 @@
         <v>0.4941742311339927</v>
       </c>
       <c r="U79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>102</v>
+      </c>
+      <c r="V79">
+        <v>0.06728578290697246</v>
+      </c>
+      <c r="W79">
+        <v>0.1252131848849324</v>
+      </c>
+      <c r="X79">
+        <v>0.5041322314049588</v>
+      </c>
+      <c r="Y79">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6027,10 +7227,25 @@
         <v>0.3756613756613756</v>
       </c>
       <c r="U80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>103</v>
+      </c>
+      <c r="V80">
+        <v>0.1199294532627866</v>
+      </c>
+      <c r="W80">
+        <v>0.1020966828352169</v>
+      </c>
+      <c r="X80">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y80">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6092,10 +7307,25 @@
         <v>0.3756613756613756</v>
       </c>
       <c r="U81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>104</v>
+      </c>
+      <c r="V81">
+        <v>0.1199294532627866</v>
+      </c>
+      <c r="W81">
+        <v>0.1020966828352169</v>
+      </c>
+      <c r="X81">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y81">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z81">
+        <v>0.6233333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6157,10 +7387,25 @@
         <v>0.4056437389770723</v>
       </c>
       <c r="U82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>105</v>
+      </c>
+      <c r="V82">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="W82">
+        <v>0.1186194988151481</v>
+      </c>
+      <c r="X82">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y82">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z82">
+        <v>0.4288888888888889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6222,10 +7467,25 @@
         <v>0.5070546737213404</v>
       </c>
       <c r="U83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>106</v>
+      </c>
+      <c r="V83">
+        <v>0.1963550852439741</v>
+      </c>
+      <c r="W83">
+        <v>0.1619124317743336</v>
+      </c>
+      <c r="X83">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y83">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z83">
+        <v>0.2088888888888889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6287,10 +7547,25 @@
         <v>0.4303350970017636</v>
       </c>
       <c r="U84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>107</v>
+      </c>
+      <c r="V84">
+        <v>0.1663727219282775</v>
+      </c>
+      <c r="W84">
+        <v>0.1217734630066054</v>
+      </c>
+      <c r="X84">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y84">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z84">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6352,10 +7627,25 @@
         <v>0.5167548500881833</v>
       </c>
       <c r="U85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>108</v>
+      </c>
+      <c r="V85">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="W85">
+        <v>0.1459828535589565</v>
+      </c>
+      <c r="X85">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="Y85">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6417,10 +7707,25 @@
         <v>0.005233437077740196</v>
       </c>
       <c r="U86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>109</v>
+      </c>
+      <c r="V86">
+        <v>0.0004678676197504292</v>
+      </c>
+      <c r="W86">
+        <v>0.005636695169055579</v>
+      </c>
+      <c r="X86">
+        <v>0.5000539898499082</v>
+      </c>
+      <c r="Y86">
+        <v>0.0002159360829194558</v>
+      </c>
+      <c r="Z86">
+        <v>0.997737556561086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6482,10 +7787,25 @@
         <v>0.009231828111190445</v>
       </c>
       <c r="U87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>110</v>
+      </c>
+      <c r="V87">
+        <v>0.0006998847043894191</v>
+      </c>
+      <c r="W87">
+        <v>0.009431396939683027</v>
+      </c>
+      <c r="X87">
+        <v>0.5000539898499082</v>
+      </c>
+      <c r="Y87">
+        <v>0.0002159360829194558</v>
+      </c>
+      <c r="Z87">
+        <v>0.8001508295625943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6547,10 +7867,25 @@
         <v>0.01484340501665001</v>
       </c>
       <c r="U88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>111</v>
+      </c>
+      <c r="V88">
+        <v>0.001018513386481194</v>
+      </c>
+      <c r="W88">
+        <v>0.01416019678261244</v>
+      </c>
+      <c r="X88">
+        <v>0.5000539898499082</v>
+      </c>
+      <c r="Y88">
+        <v>0.0002159360829194558</v>
+      </c>
+      <c r="Z88">
+        <v>0.5965309200603318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6612,10 +7947,25 @@
         <v>0.02736120645296422</v>
       </c>
       <c r="U89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>112</v>
+      </c>
+      <c r="V89">
+        <v>0.001684070337127981</v>
+      </c>
+      <c r="W89">
+        <v>0.02162372200249488</v>
+      </c>
+      <c r="X89">
+        <v>0.5000539898499082</v>
+      </c>
+      <c r="Y89">
+        <v>0.0002159360829194558</v>
+      </c>
+      <c r="Z89">
+        <v>0.4079939668174962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6677,10 +8027,25 @@
         <v>0.1738412698412698</v>
       </c>
       <c r="U90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>113</v>
+      </c>
+      <c r="V90">
+        <v>0.0301968253968254</v>
+      </c>
+      <c r="W90">
+        <v>0.0530010863908302</v>
+      </c>
+      <c r="X90">
+        <v>0.504</v>
+      </c>
+      <c r="Y90">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z90">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6742,10 +8107,25 @@
         <v>0.3071269841269841</v>
       </c>
       <c r="U91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>114</v>
+      </c>
+      <c r="V91">
+        <v>0.0446831746031746</v>
+      </c>
+      <c r="W91">
+        <v>0.08151545642173626</v>
+      </c>
+      <c r="X91">
+        <v>0.504</v>
+      </c>
+      <c r="Y91">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z91">
+        <v>0.6677777777777778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6807,10 +8187,25 @@
         <v>0.3130952380952381</v>
       </c>
       <c r="U92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>115</v>
+      </c>
+      <c r="V92">
+        <v>0.04463238095238095</v>
+      </c>
+      <c r="W92">
+        <v>0.08183605019787356</v>
+      </c>
+      <c r="X92">
+        <v>0.504</v>
+      </c>
+      <c r="Y92">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z92">
+        <v>0.5171428571428571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6872,10 +8267,25 @@
         <v>0.4658412698412698</v>
       </c>
       <c r="U93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>116</v>
+      </c>
+      <c r="V93">
+        <v>0.08482641269841269</v>
+      </c>
+      <c r="W93">
+        <v>0.1376469264226828</v>
+      </c>
+      <c r="X93">
+        <v>0.504</v>
+      </c>
+      <c r="Y93">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z93">
+        <v>0.3963888888888889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6937,10 +8347,25 @@
         <v>0.4087777777777778</v>
       </c>
       <c r="U94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="V94">
+        <v>0.07747555555555555</v>
+      </c>
+      <c r="W94">
+        <v>0.1120362005557407</v>
+      </c>
+      <c r="X94">
+        <v>0.504</v>
+      </c>
+      <c r="Y94">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z94">
+        <v>0.2057539682539682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7002,10 +8427,25 @@
         <v>0.502095238095238</v>
       </c>
       <c r="U95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>118</v>
+      </c>
+      <c r="V95">
+        <v>0.1410793650793651</v>
+      </c>
+      <c r="W95">
+        <v>0.1738545043934512</v>
+      </c>
+      <c r="X95">
+        <v>0.504</v>
+      </c>
+      <c r="Y95">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7067,10 +8507,25 @@
         <v>0.08363992563278153</v>
       </c>
       <c r="U96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>119</v>
+      </c>
+      <c r="V96">
+        <v>0.01163274992009143</v>
+      </c>
+      <c r="W96">
+        <v>0.03185041716336023</v>
+      </c>
+      <c r="X96">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y96">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z96">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7132,10 +8587,25 @@
         <v>0.08543308913003915</v>
       </c>
       <c r="U97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>120</v>
+      </c>
+      <c r="V97">
+        <v>0.01223525160672058</v>
+      </c>
+      <c r="W97">
+        <v>0.03191547085177281</v>
+      </c>
+      <c r="X97">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y97">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z97">
+        <v>0.9376765532446314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7197,10 +8667,25 @@
         <v>0.3019812226341839</v>
       </c>
       <c r="U98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>121</v>
+      </c>
+      <c r="V98">
+        <v>0.02709705871248473</v>
+      </c>
+      <c r="W98">
+        <v>0.07838918117041116</v>
+      </c>
+      <c r="X98">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y98">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z98">
+        <v>0.8009823298438099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7262,10 +8747,25 @@
         <v>0.3366463738844025</v>
       </c>
       <c r="U99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>122</v>
+      </c>
+      <c r="V99">
+        <v>0.03136922659380771</v>
+      </c>
+      <c r="W99">
+        <v>0.08513982981700878</v>
+      </c>
+      <c r="X99">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y99">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z99">
+        <v>0.648087612094802</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7327,10 +8827,25 @@
         <v>0.4796168161266955</v>
       </c>
       <c r="U100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+        <v>123</v>
+      </c>
+      <c r="V100">
+        <v>0.04926330924842066</v>
+      </c>
+      <c r="W100">
+        <v>0.1155079632391216</v>
+      </c>
+      <c r="X100">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y100">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z100">
+        <v>0.3690034898524847</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7392,10 +8907,25 @@
         <v>0.4833494509886487</v>
       </c>
       <c r="U101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+        <v>124</v>
+      </c>
+      <c r="V101">
+        <v>0.06038666059684434</v>
+      </c>
+      <c r="W101">
+        <v>0.1274601239836956</v>
+      </c>
+      <c r="X101">
+        <v>0.5014577259475219</v>
+      </c>
+      <c r="Y101">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7457,10 +8987,25 @@
         <v>0.02774393476872816</v>
       </c>
       <c r="U102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+        <v>125</v>
+      </c>
+      <c r="V102">
+        <v>0.003139810803221772</v>
+      </c>
+      <c r="W102">
+        <v>0.01564023197378815</v>
+      </c>
+      <c r="X102">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y102">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z102">
+        <v>0.9918032786885246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7522,10 +9067,25 @@
         <v>0.04726526256667238</v>
       </c>
       <c r="U103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+        <v>126</v>
+      </c>
+      <c r="V103">
+        <v>0.004360695023901089</v>
+      </c>
+      <c r="W103">
+        <v>0.02525599567883275</v>
+      </c>
+      <c r="X103">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y103">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z103">
+        <v>0.7989071038251366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7587,10 +9147,25 @@
         <v>0.05244928160582025</v>
       </c>
       <c r="U104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+        <v>127</v>
+      </c>
+      <c r="V104">
+        <v>0.004834471723842172</v>
+      </c>
+      <c r="W104">
+        <v>0.01897372566205918</v>
+      </c>
+      <c r="X104">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y104">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z104">
+        <v>0.6136612021857923</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7652,10 +9227,25 @@
         <v>0.08455388809059203</v>
       </c>
       <c r="U105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+        <v>128</v>
+      </c>
+      <c r="V105">
+        <v>0.00694171223382467</v>
+      </c>
+      <c r="W105">
+        <v>0.02837813252572421</v>
+      </c>
+      <c r="X105">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y105">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z105">
+        <v>0.4010928961748634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7717,10 +9307,25 @@
         <v>0.2503358586853968</v>
       </c>
       <c r="U106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+        <v>129</v>
+      </c>
+      <c r="V106">
+        <v>0.01625026026613102</v>
+      </c>
+      <c r="W106">
+        <v>0.07023547194221069</v>
+      </c>
+      <c r="X106">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y106">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z106">
+        <v>0.1896174863387978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7782,10 +9387,25 @@
         <v>0.2523963504760782</v>
       </c>
       <c r="U107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+        <v>130</v>
+      </c>
+      <c r="V107">
+        <v>0.01752349986760204</v>
+      </c>
+      <c r="W107">
+        <v>0.07066216953389955</v>
+      </c>
+      <c r="X107">
+        <v>0.5003756574004508</v>
+      </c>
+      <c r="Y107">
+        <v>0.001501501501501501</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7847,10 +9467,25 @@
         <v>0.2378801565793436</v>
       </c>
       <c r="U108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+        <v>131</v>
+      </c>
+      <c r="V108">
+        <v>0.04888085917896216</v>
+      </c>
+      <c r="W108">
+        <v>0.06906198616793098</v>
+      </c>
+      <c r="X108">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y108">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z108">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7912,10 +9547,25 @@
         <v>0.3083408611863896</v>
       </c>
       <c r="U109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+        <v>132</v>
+      </c>
+      <c r="V109">
+        <v>0.07020419998438668</v>
+      </c>
+      <c r="W109">
+        <v>0.08344180269950335</v>
+      </c>
+      <c r="X109">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y109">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z109">
+        <v>0.7867965367965368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7977,10 +9627,25 @@
         <v>0.4956338452273412</v>
       </c>
       <c r="U110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+        <v>133</v>
+      </c>
+      <c r="V110">
+        <v>0.1656685291132747</v>
+      </c>
+      <c r="W110">
+        <v>0.1804939129047512</v>
+      </c>
+      <c r="X110">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y110">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z110">
+        <v>0.6174075924075924</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8042,10 +9707,25 @@
         <v>0.4657733614373181</v>
       </c>
       <c r="U111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+        <v>134</v>
+      </c>
+      <c r="V111">
+        <v>0.1449251118025583</v>
+      </c>
+      <c r="W111">
+        <v>0.1456235063736225</v>
+      </c>
+      <c r="X111">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y111">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z111">
+        <v>0.3114285714285714</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8107,10 +9787,25 @@
         <v>0.5040650406504066</v>
       </c>
       <c r="U112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+        <v>135</v>
+      </c>
+      <c r="V112">
+        <v>0.22078356586035</v>
+      </c>
+      <c r="W112">
+        <v>0.1828922970170196</v>
+      </c>
+      <c r="X112">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y112">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z112">
+        <v>0.1273809523809524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8172,10 +9867,25 @@
         <v>0.5052193114523738</v>
       </c>
       <c r="U113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+        <v>136</v>
+      </c>
+      <c r="V113">
+        <v>0.3415637860082305</v>
+      </c>
+      <c r="W113">
+        <v>0.1481142689355662</v>
+      </c>
+      <c r="X113">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="Y113">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8237,10 +9947,25 @@
         <v>0.06415753703165844</v>
       </c>
       <c r="U114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+        <v>137</v>
+      </c>
+      <c r="V114">
+        <v>0.007349776357827476</v>
+      </c>
+      <c r="W114">
+        <v>0.02519010242483372</v>
+      </c>
+      <c r="X114">
+        <v>0.5008</v>
+      </c>
+      <c r="Y114">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z114">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8302,10 +10027,25 @@
         <v>0.1561498693000291</v>
       </c>
       <c r="U115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+        <v>138</v>
+      </c>
+      <c r="V115">
+        <v>0.01320388293929712</v>
+      </c>
+      <c r="W115">
+        <v>0.04990238297062251</v>
+      </c>
+      <c r="X115">
+        <v>0.5008</v>
+      </c>
+      <c r="Y115">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z115">
+        <v>0.791332641243632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8367,10 +10107,25 @@
         <v>0.2901243489205151</v>
       </c>
       <c r="U116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+        <v>139</v>
+      </c>
+      <c r="V116">
+        <v>0.0233714014057508</v>
+      </c>
+      <c r="W116">
+        <v>0.07302391455737199</v>
+      </c>
+      <c r="X116">
+        <v>0.5008</v>
+      </c>
+      <c r="Y116">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z116">
+        <v>0.5956428184917888</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8432,10 +10187,25 @@
         <v>0.3653571884984025</v>
       </c>
       <c r="U117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
+        <v>140</v>
+      </c>
+      <c r="V117">
+        <v>0.03282486798722044</v>
+      </c>
+      <c r="W117">
+        <v>0.08655264984324069</v>
+      </c>
+      <c r="X117">
+        <v>0.5008</v>
+      </c>
+      <c r="Y117">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z117">
+        <v>0.3907498608245735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8497,10 +10267,25 @@
         <v>0.4697501791073676</v>
       </c>
       <c r="U118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
+        <v>141</v>
+      </c>
+      <c r="V118">
+        <v>0.05011491169329074</v>
+      </c>
+      <c r="W118">
+        <v>0.1194758415493639</v>
+      </c>
+      <c r="X118">
+        <v>0.5008</v>
+      </c>
+      <c r="Y118">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z118">
+        <v>0.1971784410245036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8562,10 +10347,25 @@
         <v>0.490596185497144</v>
       </c>
       <c r="U119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
+        <v>142</v>
+      </c>
+      <c r="V119">
+        <v>0.08261214057507987</v>
+      </c>
+      <c r="W119">
+        <v>0.1498814721020091</v>
+      </c>
+      <c r="X119">
+        <v>0.5008</v>
+      </c>
+      <c r="Y119">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8627,10 +10427,25 @@
         <v>0.01972666394166615</v>
       </c>
       <c r="U120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
+        <v>143</v>
+      </c>
+      <c r="V120">
+        <v>0.002022223502587811</v>
+      </c>
+      <c r="W120">
+        <v>0.01240065671398611</v>
+      </c>
+      <c r="X120">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y120">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z120">
+        <v>0.9970930232558139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8692,10 +10507,25 @@
         <v>0.03393532407092018</v>
       </c>
       <c r="U121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
+        <v>144</v>
+      </c>
+      <c r="V121">
+        <v>0.002847030399994593</v>
+      </c>
+      <c r="W121">
+        <v>0.01861411314919882</v>
+      </c>
+      <c r="X121">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y121">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z121">
+        <v>0.9507703851491383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8757,10 +10587,25 @@
         <v>0.08114879482343061</v>
       </c>
       <c r="U122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+        <v>145</v>
+      </c>
+      <c r="V122">
+        <v>0.005685493633491736</v>
+      </c>
+      <c r="W122">
+        <v>0.03288549723470983</v>
+      </c>
+      <c r="X122">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y122">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z122">
+        <v>0.8494420477505851</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8822,10 +10667,25 @@
         <v>0.1884544564301349</v>
       </c>
       <c r="U123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+        <v>146</v>
+      </c>
+      <c r="V123">
+        <v>0.01175187050474688</v>
+      </c>
+      <c r="W123">
+        <v>0.05750402921610284</v>
+      </c>
+      <c r="X123">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y123">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z123">
+        <v>0.6700143192214103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8887,10 +10747,25 @@
         <v>0.2498611694311338</v>
       </c>
       <c r="U124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
+        <v>147</v>
+      </c>
+      <c r="V124">
+        <v>0.01590598244075259</v>
+      </c>
+      <c r="W124">
+        <v>0.06697765503777478</v>
+      </c>
+      <c r="X124">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y124">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z124">
+        <v>0.3947559416299017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8952,10 +10827,25 @@
         <v>0.3686694825409584</v>
       </c>
       <c r="U125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
+        <v>148</v>
+      </c>
+      <c r="V125">
+        <v>0.02534801847709563</v>
+      </c>
+      <c r="W125">
+        <v>0.08821444674991347</v>
+      </c>
+      <c r="X125">
+        <v>0.5002082465639317</v>
+      </c>
+      <c r="Y125">
+        <v>0.000832639467110741</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9017,10 +10907,25 @@
         <v>0.1369131947456173</v>
       </c>
       <c r="U126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+        <v>149</v>
+      </c>
+      <c r="V126">
+        <v>0.01913692684791653</v>
+      </c>
+      <c r="W126">
+        <v>0.04293055336434049</v>
+      </c>
+      <c r="X126">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y126">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z126">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9082,10 +10987,25 @@
         <v>0.3091045768641397</v>
       </c>
       <c r="U127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+        <v>150</v>
+      </c>
+      <c r="V127">
+        <v>0.03166833657737433</v>
+      </c>
+      <c r="W127">
+        <v>0.07911547922576585</v>
+      </c>
+      <c r="X127">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y127">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z127">
+        <v>0.8335939615939616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9147,10 +11067,25 @@
         <v>0.493651275527414</v>
       </c>
       <c r="U128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+        <v>151</v>
+      </c>
+      <c r="V128">
+        <v>0.06895107119982877</v>
+      </c>
+      <c r="W128">
+        <v>0.1292085904285115</v>
+      </c>
+      <c r="X128">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y128">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z128">
+        <v>0.5876856109678382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9212,10 +11147,25 @@
         <v>0.5012576979790094</v>
       </c>
       <c r="U129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+        <v>152</v>
+      </c>
+      <c r="V129">
+        <v>0.1565243536279539</v>
+      </c>
+      <c r="W129">
+        <v>0.1721146110370366</v>
+      </c>
+      <c r="X129">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y129">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z129">
+        <v>0.4345802294752356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9277,10 +11227,25 @@
         <v>0.4947836855851428</v>
       </c>
       <c r="U130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+        <v>153</v>
+      </c>
+      <c r="V130">
+        <v>0.1875830270442247</v>
+      </c>
+      <c r="W130">
+        <v>0.1744557986691166</v>
+      </c>
+      <c r="X130">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y130">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z130">
+        <v>0.1077296777296777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9342,10 +11307,25 @@
         <v>0.5015010456722661</v>
       </c>
       <c r="U131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+        <v>154</v>
+      </c>
+      <c r="V131">
+        <v>0.336076817558299</v>
+      </c>
+      <c r="W131">
+        <v>0.1487603723082057</v>
+      </c>
+      <c r="X131">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="Y131">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9407,10 +11387,25 @@
         <v>0.01837466345959167</v>
       </c>
       <c r="U132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+        <v>155</v>
+      </c>
+      <c r="V132">
+        <v>0.001727508637236084</v>
+      </c>
+      <c r="W132">
+        <v>0.01148060654923868</v>
+      </c>
+      <c r="X132">
+        <v>0.50016</v>
+      </c>
+      <c r="Y132">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z132">
+        <v>0.9920634920634921</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9472,10 +11467,25 @@
         <v>0.06440708342444341</v>
       </c>
       <c r="U133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+        <v>156</v>
+      </c>
+      <c r="V133">
+        <v>0.004265340314779271</v>
+      </c>
+      <c r="W133">
+        <v>0.03133567289564122</v>
+      </c>
+      <c r="X133">
+        <v>0.50016</v>
+      </c>
+      <c r="Y133">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z133">
+        <v>0.7995453070185737</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9537,10 +11547,25 @@
         <v>0.1063298926925662</v>
       </c>
       <c r="U134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+        <v>157</v>
+      </c>
+      <c r="V134">
+        <v>0.006781449696225208</v>
+      </c>
+      <c r="W134">
+        <v>0.0425511076946275</v>
+      </c>
+      <c r="X134">
+        <v>0.50016</v>
+      </c>
+      <c r="Y134">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z134">
+        <v>0.5931391556371715</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9602,10 +11627,25 @@
         <v>0.1476468304218599</v>
       </c>
       <c r="U135" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+        <v>158</v>
+      </c>
+      <c r="V135">
+        <v>0.009684091757901471</v>
+      </c>
+      <c r="W135">
+        <v>0.04309535609456914</v>
+      </c>
+      <c r="X135">
+        <v>0.50016</v>
+      </c>
+      <c r="Y135">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z135">
+        <v>0.4046469359660977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9667,10 +11707,25 @@
         <v>0.4017863796496514</v>
       </c>
       <c r="U136" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+        <v>159</v>
+      </c>
+      <c r="V136">
+        <v>0.02747510352911068</v>
+      </c>
+      <c r="W136">
+        <v>0.09141552687902826</v>
+      </c>
+      <c r="X136">
+        <v>0.50016</v>
+      </c>
+      <c r="Y136">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z136">
+        <v>0.200942719265273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9732,7 +11787,22 @@
         <v>0.4706116112312415</v>
       </c>
       <c r="U137" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="V137">
+        <v>0.04911805502239283</v>
+      </c>
+      <c r="W137">
+        <v>0.1227325843729935</v>
+      </c>
+      <c r="X137">
+        <v>0.50016</v>
+      </c>
+      <c r="Y137">
+        <v>0.0006397952655150352</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
